--- a/biology/Botanique/Plectranthus/Plectranthus.xlsx
+++ b/biology/Botanique/Plectranthus/Plectranthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plectranthus est un genre de plantes à fleurs de la famille des Labiées (Lamiaceae). Ces plantes sont souvent appelées communément des coléus, en souvenir du genre Coleus qui a été révisé par la suite.
 </t>
@@ -511,9 +523,11 @@
           <t>Révision du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, à la lumière de la phylogénie moléculaire, ce genre a été révisé et considéré, dans son sens large, comme équivalent à la sous tribu des Plectranthinae. De nombreuses espèces de Plectranthus ont ainsi été recomposées dans les genres Coleus, qui est à nouveau reconnu, et Equilabium. On ne compte par conséquent plus que 72 espèces de Plectranthus au sens scrict, les autres étant réparties entre Coleus (294 espèces) et Equilabium (42 espèces)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, à la lumière de la phylogénie moléculaire, ce genre a été révisé et considéré, dans son sens large, comme équivalent à la sous tribu des Plectranthinae. De nombreuses espèces de Plectranthus ont ainsi été recomposées dans les genres Coleus, qui est à nouveau reconnu, et Equilabium. On ne compte par conséquent plus que 72 espèces de Plectranthus au sens scrict, les autres étant réparties entre Coleus (294 espèces) et Equilabium (42 espèces).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (26 juin 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (26 juin 2020) :
 Plectranthus alpinus (Vatke) Ryding
 Plectranthus amboinicus (Lour.) Spreng.
 Plectranthus autranii (Briq.) A. J. Paton
@@ -572,7 +588,7 @@
 Plectranthus spp.
 Plectranthus unguentarius Codd
 Plectranthus welwitschii (Briq.) Codd
-Selon World Checklist of Selected Plant Families (WCSP)  (26 juin 2020)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (26 juin 2020) :
 Plectranthus alboviolaceus Gürke (1901)
 Plectranthus ambiguus (Bolus) Codd (1964)
 Plectranthus amplexicaulis Hedge (1998)
@@ -717,7 +733,7 @@
 Plectranthus xanthanthus (C.Y.Wu &amp; Y.C.Huang) S.S.Ying (2019)
 Plectranthus zenkeri Gürke (1894)
 Plectranthus zuluensis T.Cooke (1909)
-Selon Tropicos                                           (26 juin 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 Plectranthus aberdaricus T.C.E. Fr.
 Plectranthus acariformis P.I. Forst.
 Plectranthus acaulis Brummitt &amp; Seyani
@@ -1419,7 +1435,7 @@
 Plectranthus triflorus Baker
 Plectranthus trilobus Hedge
 Plectranthus tristis (Roth) Spreng.
-Plec</t>
+Plectranthus </t>
         </is>
       </c>
     </row>
